--- a/colbert/output/Results_colbert_max_body_split_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_body_split_extraQuestions.xlsx
@@ -1652,11 +1652,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -1877,11 +1877,11 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -1952,11 +1952,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -3302,11 +3302,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -3327,11 +3327,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>

--- a/colbert/output/Results_colbert_max_body_split_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_body_split_extraQuestions.xlsx
@@ -477,11 +477,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23850</v>
+        <v>290851</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>apple and goats  cheese brulee</t>
         </is>
       </c>
     </row>
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>93249</v>
+        <v>310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>apple creme brulee</t>
         </is>
       </c>
     </row>
@@ -527,11 +527,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76808</v>
+        <v>37284</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apple cinnamon creme brulee</t>
         </is>
       </c>
     </row>
@@ -552,11 +552,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24701</v>
+        <v>205645</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>apple creme brulee cheesecake</t>
         </is>
       </c>
     </row>
@@ -577,11 +577,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42522</v>
+        <v>151746</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>diamond  creme brulee</t>
         </is>
       </c>
     </row>
@@ -602,11 +602,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62368</v>
+        <v>17646</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>all chocolate boston cream pie</t>
         </is>
       </c>
     </row>
@@ -627,11 +627,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58651</v>
+        <v>463510</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>all chocolate boston cream pie</t>
         </is>
       </c>
     </row>
@@ -652,11 +652,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31490</v>
+        <v>110094</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>apricot  chocolate  and walnut scones</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27087</v>
+        <v>48774</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>apricot chocolate chip cake</t>
         </is>
       </c>
     </row>
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71635</v>
+        <v>81108</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>3 ingredient chocolate cake</t>
         </is>
       </c>
     </row>
@@ -727,11 +727,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71457</v>
+        <v>124853</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>apple pie</t>
         </is>
       </c>
     </row>
@@ -752,11 +752,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19208</v>
+        <v>65988</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>apple pie</t>
         </is>
       </c>
     </row>
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>63593</v>
+        <v>257335</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>apple pie with a crust</t>
         </is>
       </c>
     </row>
@@ -802,11 +802,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24701</v>
+        <v>18476</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>apple cider pie</t>
         </is>
       </c>
     </row>
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42198</v>
+        <v>51379</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>better than sex  strawberries</t>
+          <t>apple   cream pie</t>
         </is>
       </c>
     </row>
@@ -852,11 +852,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39363</v>
+        <v>204622</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apple butter banana bread</t>
         </is>
       </c>
     </row>
@@ -877,11 +877,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>83062</v>
+        <v>6627</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>apple banana bread</t>
         </is>
       </c>
     </row>
@@ -902,11 +902,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>95926</v>
+        <v>22774</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>100  yummy banana bread</t>
         </is>
       </c>
     </row>
@@ -927,11 +927,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75452</v>
+        <v>39363</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>111875</v>
+        <v>27313</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>apricot banana bread</t>
         </is>
       </c>
     </row>
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53402</v>
+        <v>65007</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>5 cheese crab lasagna with roasted garlic and vegetables</t>
         </is>
       </c>
     </row>
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39363</v>
+        <v>313066</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>30 minute lasagna bowls</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>35964</v>
+        <v>166082</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>3 cheese lasagna</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24701</v>
+        <v>238046</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>amazing vegetarian or vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>112959</v>
+        <v>28768</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>absolute best ever lasagna</t>
         </is>
       </c>
     </row>
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62368</v>
+        <v>81108</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>3 ingredient chocolate cake</t>
         </is>
       </c>
     </row>
@@ -1127,11 +1127,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32271</v>
+        <v>318070</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>almond chocolate coffee cake</t>
         </is>
       </c>
     </row>
@@ -1152,11 +1152,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58651</v>
+        <v>243080</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>a chocolate syrup cake</t>
         </is>
       </c>
     </row>
@@ -1177,11 +1177,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>83025</v>
+        <v>48774</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>apricot chocolate chip cake</t>
         </is>
       </c>
     </row>
@@ -1202,11 +1202,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>35964</v>
+        <v>460882</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>5 minute chocolate mug cake</t>
         </is>
       </c>
     </row>
@@ -1227,11 +1227,11 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>58651</v>
+        <v>309806</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>3 ingredient fruity chocolate mousse</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>32271</v>
+        <v>369262</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>aces  frozen chocolate mousse pie</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>71635</v>
+        <v>469890</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>amazingly delicious chocolate mousse</t>
         </is>
       </c>
     </row>
@@ -1302,11 +1302,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>49262</v>
+        <v>520809</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>3 layer chocolate cake with chocolate mousse filling  gluten fre</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>62368</v>
+        <v>257354</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>amaretto spiked chocolate mousse  vegan</t>
         </is>
       </c>
     </row>
@@ -1352,11 +1352,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75452</v>
+        <v>280644</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>in the pink  lemonade</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>83133</v>
+        <v>29360</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>asparagus with brown butter</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64302</v>
+        <v>155106</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>asparagus dijonnaise</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>84797</v>
+        <v>479593</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>asparagus with butter lemon and mint drizzle</t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>42570</v>
+        <v>205504</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>apricot lemon marmalade</t>
         </is>
       </c>
     </row>
@@ -1477,11 +1477,11 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>54100</v>
+        <v>89559</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>apple grilled cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -1502,11 +1502,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35173</v>
+        <v>446192</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>antipasto grilled cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -1527,11 +1527,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>99024</v>
+        <v>100540</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>almost grilled  cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>107699</v>
+        <v>304216</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a different grilled cheese sammich</t>
         </is>
       </c>
     </row>
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>93249</v>
+        <v>338753</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>5 cheese grilled cheese</t>
         </is>
       </c>
     </row>
@@ -1602,11 +1602,11 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>38276</v>
+        <v>429764</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>a pitcher of mojitos</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>83133</v>
+        <v>185088</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>10 minute baked ziti</t>
         </is>
       </c>
     </row>
@@ -1652,11 +1652,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>44045</v>
+        <v>306168</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>412 broccoli casserole</t>
         </is>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>87098</v>
+        <v>24470</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>dipstir  crock pot dip</t>
         </is>
       </c>
     </row>
@@ -1727,11 +1727,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>93958</v>
+        <v>276547</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>7 layer dip   greek style</t>
         </is>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>93959</v>
+        <v>131967</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>a little bite of the mediterranean</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23933</v>
+        <v>353785</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>artichoke pesto hummus</t>
         </is>
       </c>
     </row>
@@ -1802,11 +1802,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>93249</v>
+        <v>331834</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>apple spice hummus</t>
         </is>
       </c>
     </row>
@@ -1827,11 +1827,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>111875</v>
+        <v>224837</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>arayes  mini meat calzones</t>
         </is>
       </c>
     </row>
@@ -1852,11 +1852,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>22123</v>
+        <v>407747</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>5 spice tea</t>
         </is>
       </c>
     </row>
@@ -1877,11 +1877,11 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>112140</v>
+        <v>369670</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>applemint iced tea</t>
         </is>
       </c>
     </row>
@@ -1902,11 +1902,11 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>39959</v>
+        <v>144405</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>arnold palmer</t>
         </is>
       </c>
     </row>
@@ -1927,11 +1927,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>63593</v>
+        <v>378974</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>apple ginger mint iced tea</t>
         </is>
       </c>
     </row>
@@ -1952,11 +1952,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>58224</v>
+        <v>507314</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>armenian iced tea</t>
         </is>
       </c>
     </row>
@@ -1977,11 +1977,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>111875</v>
+        <v>423880</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>10 second mango yogurt smoothie</t>
         </is>
       </c>
     </row>
@@ -2002,11 +2002,11 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>83873</v>
+        <v>415955</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>apricot  mango and blueberry smoothie</t>
         </is>
       </c>
     </row>
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35964</v>
+        <v>204114</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>a berry good banana smoothie</t>
         </is>
       </c>
     </row>
@@ -2052,11 +2052,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>63593</v>
+        <v>116468</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>apricot banana smoothie</t>
         </is>
       </c>
     </row>
@@ -2077,11 +2077,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>112959</v>
+        <v>230957</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>apple banana smoothie</t>
         </is>
       </c>
     </row>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>83873</v>
+        <v>137434</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>creamy  chicken curry</t>
         </is>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>63986</v>
+        <v>241413</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>apple curry chicken</t>
         </is>
       </c>
     </row>
@@ -2152,11 +2152,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>32169</v>
+        <v>192064</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>amazing chicken curry</t>
         </is>
       </c>
     </row>
@@ -2177,11 +2177,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>42570</v>
+        <v>123449</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>aromatic chicken curry</t>
         </is>
       </c>
     </row>
@@ -2202,11 +2202,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>98930</v>
+        <v>367586</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>a taste of africa   kenyan chicken curry</t>
         </is>
       </c>
     </row>
@@ -2227,11 +2227,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>111875</v>
+        <v>290853</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>amazing watermelon greek salad with feta</t>
         </is>
       </c>
     </row>
@@ -2252,11 +2252,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>81185</v>
+        <v>326643</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>agua fresca</t>
         </is>
       </c>
     </row>
@@ -2277,11 +2277,11 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39959</v>
+        <v>88849</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>agua de sandia  watermelon beverage</t>
         </is>
       </c>
     </row>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>54100</v>
+        <v>183491</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>apricot fizz</t>
         </is>
       </c>
     </row>
@@ -2327,11 +2327,11 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>24701</v>
+        <v>73280</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>agua fresca de melon  watermelon sparkling water</t>
         </is>
       </c>
     </row>
@@ -2352,11 +2352,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>100870</v>
+        <v>25400</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>alexander s spaghetti carbonara</t>
         </is>
       </c>
     </row>
@@ -2377,11 +2377,11 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>83950</v>
+        <v>160696</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>ally style pasta carbonara</t>
         </is>
       </c>
     </row>
@@ -2402,11 +2402,11 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>38276</v>
+        <v>337364</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>artichoke heart and anchovy carbonara</t>
         </is>
       </c>
     </row>
@@ -2427,11 +2427,11 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>137739</v>
+        <v>140173</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>15 minute shrimp carbonara fettuccine</t>
         </is>
       </c>
     </row>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>24701</v>
+        <v>135763</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>asparagus carbonara</t>
         </is>
       </c>
     </row>
@@ -2477,11 +2477,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>84797</v>
+        <v>306061</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>arroz brasileiro rice with tomatoes and onions</t>
         </is>
       </c>
     </row>
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>60219</v>
+        <v>226661</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>arroz con cebolla  rice with onions</t>
         </is>
       </c>
     </row>
@@ -2527,11 +2527,11 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35595</v>
+        <v>184156</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>arroz con pollo  rice with chicken</t>
         </is>
       </c>
     </row>
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>64045</v>
+        <v>121665</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>arroz con pollo  chicken with rice</t>
         </is>
       </c>
     </row>
@@ -2577,11 +2577,11 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>103948</v>
+        <v>255464</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>arroz moro  white rice with cuban black beans</t>
         </is>
       </c>
     </row>
@@ -2602,11 +2602,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>33606</v>
+        <v>425432</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>a summer chopped salad</t>
         </is>
       </c>
     </row>
@@ -2627,11 +2627,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>63793</v>
+        <v>14263</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>asian summer salad</t>
         </is>
       </c>
     </row>
@@ -2652,11 +2652,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>64302</v>
+        <v>50414</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>a refreshing salad to usher in summer</t>
         </is>
       </c>
     </row>
@@ -2677,11 +2677,11 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>35653</v>
+        <v>239638</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>asian summer pasta salad</t>
         </is>
       </c>
     </row>
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>33165</v>
+        <v>307191</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>i can t believe it s low fat  creamy potato salad</t>
+          <t>asparagus and spring onion potato salad</t>
         </is>
       </c>
     </row>
@@ -2727,11 +2727,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>38276</v>
+        <v>139295</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>aji de carne    bolivian pork and bananas</t>
         </is>
       </c>
     </row>
@@ -2752,11 +2752,11 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>112959</v>
+        <v>473574</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>6 point carne guisada  latin beef stew</t>
         </is>
       </c>
     </row>
@@ -2777,11 +2777,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>35173</v>
+        <v>279052</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>cheesy  vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -2802,11 +2802,11 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>53402</v>
+        <v>483959</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>acadia s vegan cremesicle</t>
         </is>
       </c>
     </row>
@@ -2827,11 +2827,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>43026</v>
+        <v>496766</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>chile rellenos</t>
+          <t>take me to spain  tortilla espanola  5fix</t>
         </is>
       </c>
     </row>
@@ -2852,11 +2852,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>44123</v>
+        <v>535371</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>almond flour blueberry muffins best ever</t>
         </is>
       </c>
     </row>
@@ -2877,11 +2877,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>39947</v>
+        <v>351153</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>apple breakfast bar  gluten free   vegan options</t>
         </is>
       </c>
     </row>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>24478</v>
+        <v>451395</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>marijuana  vinegar</t>
+          <t>ameraussie s gluten free oatmeal pancakes</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2927,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>49262</v>
+        <v>210873</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>arrowroot biscuits</t>
         </is>
       </c>
     </row>
@@ -2952,11 +2952,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>30300</v>
+        <v>277717</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>amazing cinnamon apple rice stuffed chicken gfcf</t>
         </is>
       </c>
     </row>
@@ -2977,11 +2977,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>76808</v>
+        <v>304490</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apricot noodle kugel</t>
         </is>
       </c>
     </row>
@@ -3002,11 +3002,11 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>30300</v>
+        <v>428704</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>apricot and pistachio baklava with orange cardamom syrup</t>
         </is>
       </c>
     </row>
@@ -3027,11 +3027,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>35964</v>
+        <v>486326</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>apple cheesecake</t>
         </is>
       </c>
     </row>
@@ -3052,11 +3052,11 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>32169</v>
+        <v>403815</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>alpine mint hot chocolate</t>
         </is>
       </c>
     </row>
@@ -3077,11 +3077,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>63793</v>
+        <v>409492</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>apple turnovers</t>
         </is>
       </c>
     </row>
@@ -3102,11 +3102,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>35173</v>
+        <v>221049</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>leftover  lo mein for two</t>
         </is>
       </c>
     </row>
@@ -3127,11 +3127,11 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>58224</v>
+        <v>296248</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>almond sandwich cookies</t>
         </is>
       </c>
     </row>
@@ -3152,11 +3152,11 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>95926</v>
+        <v>103114</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>allegheny applesauce bread</t>
         </is>
       </c>
     </row>
@@ -3177,11 +3177,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>63793</v>
+        <v>151775</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>100  honey whole wheat cracked wheat bread</t>
         </is>
       </c>
     </row>
@@ -3202,11 +3202,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>107699</v>
+        <v>120413</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>al roker s spicy chicken wings</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3252,11 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>111875</v>
+        <v>158685</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>5 minute pita pizza</t>
         </is>
       </c>
     </row>
@@ -3277,11 +3277,11 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>112959</v>
+        <v>174469</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>off the boat  sicilian pasta sauce</t>
         </is>
       </c>
     </row>
@@ -3302,11 +3302,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>30131</v>
+        <v>225253</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>artichoke and garbanzo stew</t>
         </is>
       </c>
     </row>
@@ -3327,11 +3327,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>93249</v>
+        <v>99563</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>amazing stuffed capsicum</t>
         </is>
       </c>
     </row>
@@ -3352,11 +3352,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>84797</v>
+        <v>489651</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>apples and cinnamon breakfast quinoa</t>
         </is>
       </c>
     </row>
@@ -3377,11 +3377,11 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>8559</v>
+        <v>173753</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>african potato and collard green stew</t>
         </is>
       </c>
     </row>
@@ -3402,11 +3402,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>54272</v>
+        <v>353806</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>amaranth  quinoa  and corn chowder</t>
         </is>
       </c>
     </row>
@@ -3427,11 +3427,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>64045</v>
+        <v>466866</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>apple almond quinoa with curry vinaigrette</t>
         </is>
       </c>
     </row>
@@ -3452,11 +3452,11 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>35595</v>
+        <v>158578</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>a quinoa pilaf that you ll love</t>
         </is>
       </c>
     </row>
@@ -3477,11 +3477,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>35595</v>
+        <v>16451</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>lite  stuffed mushrooms</t>
         </is>
       </c>
     </row>
@@ -3502,11 +3502,11 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>22123</v>
+        <v>354476</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>acadia s mushrooms   onions</t>
         </is>
       </c>
     </row>
@@ -3527,11 +3527,11 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>25775</v>
+        <v>271012</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>a symphony of french chocolate truffles</t>
         </is>
       </c>
     </row>
@@ -3552,11 +3552,11 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>32169</v>
+        <v>408388</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>alouette stuffed mushrooms</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>59534</v>
+        <v>258552</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>amarula cream truffles  a homemade gift</t>
         </is>
       </c>
     </row>
@@ -3602,11 +3602,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>59534</v>
+        <v>86727</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>apple butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -3627,11 +3627,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>23850</v>
+        <v>174382</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>almost fat free vegetarian butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -3652,11 +3652,11 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>137739</v>
+        <v>357367</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>alton brown s butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -3677,11 +3677,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>24701</v>
+        <v>31835</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>1 squash dressing</t>
         </is>
       </c>
     </row>
@@ -3702,11 +3702,11 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>76808</v>
+        <v>405303</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>aromatic beef stew with butternut squash</t>
         </is>
       </c>
     </row>
@@ -3727,11 +3727,11 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>107229</v>
+        <v>291228</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>amy s chicken casserole</t>
         </is>
       </c>
     </row>
@@ -3752,11 +3752,11 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>83873</v>
+        <v>474098</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>all the fixins curried chicken salad</t>
         </is>
       </c>
     </row>
@@ -3777,11 +3777,11 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>54272</v>
+        <v>153156</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>a picky eaters  chicken casserole</t>
         </is>
       </c>
     </row>
@@ -3802,11 +3802,11 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>63986</v>
+        <v>241579</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>amish style chicken and corn soup  ww core</t>
         </is>
       </c>
     </row>
@@ -3827,11 +3827,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>98930</v>
+        <v>246617</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>leftover  chicken  spinach and yellow pepper rice</t>
         </is>
       </c>
     </row>
@@ -3852,11 +3852,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23850</v>
+        <v>394624</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>almost non fat mac and cheese</t>
         </is>
       </c>
     </row>
@@ -3877,11 +3877,11 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>63593</v>
+        <v>364330</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>all in one veggie mac and cheese</t>
         </is>
       </c>
     </row>
@@ -3902,11 +3902,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>47366</v>
+        <v>205443</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>vegan mac un cheese</t>
         </is>
       </c>
     </row>
@@ -3927,11 +3927,11 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>64302</v>
+        <v>53152</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>souper  easy macaroni and cheese</t>
         </is>
       </c>
     </row>
@@ -3952,11 +3952,11 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>111875</v>
+        <v>238258</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>4 cheese macaroni and cheese</t>
         </is>
       </c>
     </row>
@@ -3977,11 +3977,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>90921</v>
+        <v>518669</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>apple  honey   caramelized onion flatbread pizza</t>
         </is>
       </c>
     </row>
@@ -4002,11 +4002,11 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>30300</v>
+        <v>303666</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>a french country affair  elegant omelette gateau w chive flowers</t>
         </is>
       </c>
     </row>
@@ -4027,11 +4027,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>24701</v>
+        <v>506732</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>asian carrot and cabbage noodles</t>
         </is>
       </c>
     </row>
@@ -4052,11 +4052,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>27087</v>
+        <v>195031</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>acorn squash and sweet potato soup  vegetarian</t>
         </is>
       </c>
     </row>
@@ -4077,11 +4077,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>35595</v>
+        <v>183118</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>almond rice casserole</t>
         </is>
       </c>
     </row>
@@ -4102,11 +4102,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>24478</v>
+        <v>308592</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>marijuana  vinegar</t>
+          <t>3 variations of a gluten free bread recipe   bread machine</t>
         </is>
       </c>
     </row>
@@ -4127,11 +4127,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>71635</v>
+        <v>433359</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>allergen free gluten free bread</t>
         </is>
       </c>
     </row>
@@ -4152,11 +4152,11 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>95926</v>
+        <v>375376</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>miracle  honey oatmeal bread  gluten free</t>
         </is>
       </c>
     </row>
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>39363</v>
+        <v>122237</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apricot and almond bread  gluten  dairy and egg free</t>
         </is>
       </c>
     </row>
@@ -4202,11 +4202,11 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>30300</v>
+        <v>27060</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>100   whole wheat</t>
         </is>
       </c>
     </row>
@@ -4227,11 +4227,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>63793</v>
+        <v>58764</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>aubergine  eggplant  pitas</t>
         </is>
       </c>
     </row>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>107699</v>
+        <v>130766</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a breakfast yogurt parfait  granola</t>
         </is>
       </c>
     </row>
@@ -4277,11 +4277,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>54272</v>
+        <v>160776</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>20 minute chicken nuggets</t>
         </is>
       </c>
     </row>
@@ -4302,11 +4302,11 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>76808</v>
+        <v>412171</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>another smoothie recipe</t>
         </is>
       </c>
     </row>
@@ -4327,11 +4327,11 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>95926</v>
+        <v>57009</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>5 cans and a jar soup</t>
         </is>
       </c>
     </row>
@@ -4352,11 +4352,11 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>63793</v>
+        <v>300367</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>apple harvest oatmeal  vegan</t>
         </is>
       </c>
     </row>
@@ -4377,11 +4377,11 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>76808</v>
+        <v>337765</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apple oatmeal  crock pot</t>
         </is>
       </c>
     </row>
@@ -4402,11 +4402,11 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>67664</v>
+        <v>351153</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>healthy for them  yogurt popsicles</t>
+          <t>apple breakfast bar  gluten free   vegan options</t>
         </is>
       </c>
     </row>
@@ -4427,11 +4427,11 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>42570</v>
+        <v>358330</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>apple cinnamon steel cut oats</t>
         </is>
       </c>
     </row>
@@ -4452,11 +4452,11 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>107699</v>
+        <v>132263</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>5 minute vegan pancakes</t>
         </is>
       </c>
     </row>
@@ -4477,11 +4477,11 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>99024</v>
+        <v>124438</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>appetizer salmon mini fillets</t>
         </is>
       </c>
     </row>
@@ -4502,11 +4502,11 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>43164</v>
+        <v>369773</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>4th of july salmon with egg sauce</t>
         </is>
       </c>
     </row>
@@ -4527,11 +4527,11 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>33606</v>
+        <v>320576</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>asparagus puff pastry snacks</t>
         </is>
       </c>
     </row>
@@ -4552,11 +4552,11 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>75452</v>
+        <v>224028</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>aluminum fish</t>
         </is>
       </c>
     </row>
@@ -4577,11 +4577,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>38276</v>
+        <v>294946</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>annie s melt in your mouth mahi  fish</t>
         </is>
       </c>
     </row>
@@ -4602,11 +4602,11 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>31490</v>
+        <v>382492</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>alton brown s pizza</t>
         </is>
       </c>
     </row>
@@ -4627,11 +4627,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>93958</v>
+        <v>518669</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>apple  honey   caramelized onion flatbread pizza</t>
         </is>
       </c>
     </row>
@@ -4652,11 +4652,11 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>71635</v>
+        <v>487701</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>5 minute artisan pizza dough</t>
         </is>
       </c>
     </row>
@@ -4677,11 +4677,11 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>38276</v>
+        <v>487173</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>5 minute bread  pizza</t>
         </is>
       </c>
     </row>
@@ -4702,11 +4702,11 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>58651</v>
+        <v>161269</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>artichoke pizza</t>
         </is>
       </c>
     </row>
@@ -4727,11 +4727,11 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>112959</v>
+        <v>349708</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>apple and cinnamon muffins  vegan</t>
         </is>
       </c>
     </row>
@@ -4752,11 +4752,11 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>25274</v>
+        <v>349570</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>5 bean salad</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>54272</v>
+        <v>274988</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>thicker than pea soup  pea soup</t>
         </is>
       </c>
     </row>
@@ -4802,11 +4802,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>81185</v>
+        <v>51922</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>cream  of mushroom soup</t>
         </is>
       </c>
     </row>
@@ -4827,11 +4827,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>24701</v>
+        <v>363030</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>5 minute  no cook marinara sauce</t>
         </is>
       </c>
     </row>
@@ -4852,11 +4852,11 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>30300</v>
+        <v>123602</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>absolutely sugar free frosting</t>
         </is>
       </c>
     </row>
@@ -4877,11 +4877,11 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>30131</v>
+        <v>210257</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>apple bread pudding  diabetic</t>
         </is>
       </c>
     </row>
@@ -4902,11 +4902,11 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>99024</v>
+        <v>255505</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>apple pie surprise diabetic</t>
         </is>
       </c>
     </row>
@@ -4927,11 +4927,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>49262</v>
+        <v>281740</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>abear s diet jello</t>
         </is>
       </c>
     </row>
@@ -4952,11 +4952,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>42570</v>
+        <v>179927</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>applesauce cake for diabetics</t>
         </is>
       </c>
     </row>
@@ -4977,11 +4977,11 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>107699</v>
+        <v>274859</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>apple fantasy dessert   low fat</t>
         </is>
       </c>
     </row>
@@ -5002,11 +5002,11 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>67664</v>
+        <v>29860</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>healthy for them  yogurt popsicles</t>
+          <t>angel food pineapple orange muffins</t>
         </is>
       </c>
     </row>
@@ -5027,11 +5027,11 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>35964</v>
+        <v>192039</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>5 min ice cream</t>
         </is>
       </c>
     </row>
@@ -5052,11 +5052,11 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>42198</v>
+        <v>189409</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>better than sex  strawberries</t>
+          <t>apricot custards</t>
         </is>
       </c>
     </row>
@@ -5077,11 +5077,11 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>30300</v>
+        <v>229252</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>adam s fruit popsicles</t>
         </is>
       </c>
     </row>
@@ -5102,11 +5102,11 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>71457</v>
+        <v>84682</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>apple  bacon and cheddar pancakes</t>
         </is>
       </c>
     </row>
@@ -5127,11 +5127,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>71635</v>
+        <v>422794</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>apple cinnamon pancakes</t>
         </is>
       </c>
     </row>
@@ -5152,11 +5152,11 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>83025</v>
+        <v>321847</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>almond chocolate cake  no flour</t>
         </is>
       </c>
     </row>
@@ -5177,11 +5177,11 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>62368</v>
+        <v>418683</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>agave vanilla snack cake</t>
         </is>
       </c>
     </row>
@@ -5202,11 +5202,11 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>35653</v>
+        <v>417632</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>100  healthy   lucious spice cake  low calorie</t>
         </is>
       </c>
     </row>
@@ -5227,11 +5227,11 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>33606</v>
+        <v>223349</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>pasta  with shrimp   eggplant</t>
         </is>
       </c>
     </row>
@@ -5252,11 +5252,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>25274</v>
+        <v>234856</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>acini di pepe ambrosia salad</t>
         </is>
       </c>
     </row>
@@ -5277,11 +5277,11 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>60219</v>
+        <v>470837</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>no cook summer pasta</t>
         </is>
       </c>
     </row>
@@ -5302,11 +5302,11 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54100</v>
+        <v>336744</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>egg  cellent noodles</t>
         </is>
       </c>
     </row>
@@ -5327,11 +5327,11 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107229</v>
+        <v>215918</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>3 cheese bake  elbows plus al forno con salsa ai tre formaggi</t>
         </is>
       </c>
     </row>
@@ -5352,11 +5352,11 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>111875</v>
+        <v>217238</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>artichoke spinach hummus</t>
         </is>
       </c>
     </row>
@@ -5377,11 +5377,11 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>35964</v>
+        <v>140610</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>heavenly  fiber muffins</t>
         </is>
       </c>
     </row>
@@ -5402,11 +5402,11 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>44895</v>
+        <v>116468</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>symphony  brownies</t>
+          <t>apricot banana smoothie</t>
         </is>
       </c>
     </row>
@@ -5427,11 +5427,11 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>23850</v>
+        <v>412171</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>another smoothie recipe</t>
         </is>
       </c>
     </row>
@@ -5452,11 +5452,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>112959</v>
+        <v>445253</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>apple and hazelnut pancakes</t>
         </is>
       </c>
     </row>
@@ -5477,11 +5477,11 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>71635</v>
+        <v>305504</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>agave oatmeal raisin flax cookies</t>
         </is>
       </c>
     </row>
@@ -5502,11 +5502,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>62368</v>
+        <v>323113</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>another peanut butter cookie   sugar free</t>
         </is>
       </c>
     </row>
@@ -5527,11 +5527,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>111875</v>
+        <v>125942</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>amish sugar cookies with frosting</t>
         </is>
       </c>
     </row>
@@ -5552,11 +5552,11 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>58651</v>
+        <v>92283</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>almond sugar cookies</t>
         </is>
       </c>
     </row>
@@ -5577,11 +5577,11 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>27087</v>
+        <v>44901</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>amish sugar cookies</t>
         </is>
       </c>
     </row>
@@ -5602,11 +5602,11 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>59534</v>
+        <v>318535</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>amber s japan style tofu meal</t>
         </is>
       </c>
     </row>
@@ -5627,11 +5627,11 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>103948</v>
+        <v>285649</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>an amazing omelette</t>
         </is>
       </c>
     </row>
@@ -5652,11 +5652,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>39363</v>
+        <v>38676</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>a different kind of french toast</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>31490</v>
+        <v>133328</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>ohana breakfast bread</t>
         </is>
       </c>
     </row>
@@ -5702,11 +5702,11 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>25775</v>
+        <v>324363</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>apple cider oatmeal</t>
         </is>
       </c>
     </row>
@@ -5727,11 +5727,11 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>44045</v>
+        <v>400912</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>apple walnut rice stuffing  vegan</t>
         </is>
       </c>
     </row>
@@ -5752,11 +5752,11 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>59389</v>
+        <v>196121</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>alouette  potatoes</t>
+          <t>asparagus phyllo wraps</t>
         </is>
       </c>
     </row>
@@ -5777,11 +5777,11 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>27087</v>
+        <v>193644</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>amaranth walnut patties</t>
         </is>
       </c>
     </row>
@@ -5802,11 +5802,11 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>112959</v>
+        <v>468652</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>tasty dish s      not so hot  pumpkin pie steamer for 2</t>
         </is>
       </c>
     </row>
@@ -5827,11 +5827,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>25274</v>
+        <v>261482</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>three sisters  stew</t>
         </is>
       </c>
     </row>
@@ -5852,11 +5852,11 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>84797</v>
+        <v>399354</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>angel hair pasta with prosciutto and wild mushrooms</t>
         </is>
       </c>
     </row>
@@ -5877,11 +5877,11 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>43164</v>
+        <v>84797</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -5902,11 +5902,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>35653</v>
+        <v>43164</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>mr  grant you took half veal prince orloff</t>
         </is>
       </c>
     </row>
@@ -5927,11 +5927,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>137739</v>
+        <v>83213</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>apricot glazed green beans</t>
         </is>
       </c>
     </row>
@@ -5952,11 +5952,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>8559</v>
+        <v>350909</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>artichoke stuffed chicken breasts</t>
         </is>
       </c>
     </row>
